--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/KGZ_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/KGZ_AdminBoundaries_TabularData.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin0" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin1" sheetId="2" r:id="rId2"/>
-    <sheet name="Admin2" sheetId="3" r:id="rId3"/>
-    <sheet name="Admin3" sheetId="4" r:id="rId4"/>
+    <sheet name="ADM0" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM1" sheetId="2" r:id="rId2"/>
+    <sheet name="ADM2" sheetId="3" r:id="rId3"/>
+    <sheet name="ADM3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,49 +19,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15005" uniqueCount="2235">
   <si>
-    <t>admin0Name_en</t>
-  </si>
-  <si>
-    <t>admin0Name_ru</t>
-  </si>
-  <si>
-    <t>admin0Name_ky</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>admin0RefName</t>
-  </si>
-  <si>
-    <t>admin0AltName1_en</t>
-  </si>
-  <si>
-    <t>admin0AltName2_en</t>
-  </si>
-  <si>
-    <t>admin0AltName1_ru</t>
-  </si>
-  <si>
-    <t>admin0AltName2_ru</t>
-  </si>
-  <si>
-    <t>admin0AltName1_ky</t>
-  </si>
-  <si>
-    <t>admin0AltName2_ky</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_EN</t>
+  </si>
+  <si>
+    <t>ADM0_RU</t>
+  </si>
+  <si>
+    <t>ADM0_KY</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>ADM0_REF</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_EN</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_RU</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_RU</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_KY</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_KY</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>Kyrgyzstan</t>
@@ -76,46 +76,46 @@
     <t>KG</t>
   </si>
   <si>
-    <t>admin1Name_en</t>
-  </si>
-  <si>
-    <t>admin1Name_ru</t>
-  </si>
-  <si>
-    <t>admin1Name_ky</t>
-  </si>
-  <si>
-    <t>admin1Pcode</t>
-  </si>
-  <si>
-    <t>admin1RefName</t>
-  </si>
-  <si>
-    <t>admin1AltName1_en</t>
-  </si>
-  <si>
-    <t>admin1AltName2_en</t>
-  </si>
-  <si>
-    <t>admin1AltName1_ru</t>
-  </si>
-  <si>
-    <t>admin1AltName2_ru</t>
-  </si>
-  <si>
-    <t>admin1AltName1_ky</t>
-  </si>
-  <si>
-    <t>admin1AltName2_ky</t>
-  </si>
-  <si>
-    <t>admin1Type_en</t>
-  </si>
-  <si>
-    <t>admin1Type_ru</t>
-  </si>
-  <si>
-    <t>admin1Type_ky</t>
+    <t>ADM1_EN</t>
+  </si>
+  <si>
+    <t>ADM1_RU</t>
+  </si>
+  <si>
+    <t>ADM1_KY</t>
+  </si>
+  <si>
+    <t>ADM1_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_REF</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_RU</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_RU</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_KY</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_KY</t>
+  </si>
+  <si>
+    <t>ADM1TYPE_EN</t>
+  </si>
+  <si>
+    <t>ADM1TYPE_RU</t>
+  </si>
+  <si>
+    <t>ADM1TYPE_KY</t>
   </si>
   <si>
     <t>Batken</t>
@@ -244,49 +244,49 @@
     <t>шаар</t>
   </si>
   <si>
-    <t>admin2Name_en</t>
-  </si>
-  <si>
-    <t>admin2Name_ru</t>
-  </si>
-  <si>
-    <t>admin2Name_ky</t>
-  </si>
-  <si>
-    <t>admin2Pcode</t>
-  </si>
-  <si>
-    <t>admin2RefName</t>
-  </si>
-  <si>
-    <t>admin2AltName1_en</t>
-  </si>
-  <si>
-    <t>admin2AltName2_en</t>
-  </si>
-  <si>
-    <t>admin2AltName1_ru</t>
-  </si>
-  <si>
-    <t>admin2AltName2_ru</t>
-  </si>
-  <si>
-    <t>admin2AltName1_ky</t>
-  </si>
-  <si>
-    <t>admin2AltName2_ky</t>
-  </si>
-  <si>
-    <t>ValidTo</t>
-  </si>
-  <si>
-    <t>admin2Type_en</t>
-  </si>
-  <si>
-    <t>admin2Type_ru</t>
-  </si>
-  <si>
-    <t>admin2Type_ky</t>
+    <t>ADM2_EN</t>
+  </si>
+  <si>
+    <t>ADM2_RU</t>
+  </si>
+  <si>
+    <t>ADM2_KY</t>
+  </si>
+  <si>
+    <t>ADM2_PCODE</t>
+  </si>
+  <si>
+    <t>ADM2_REF</t>
+  </si>
+  <si>
+    <t>ADM2ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM2ALT2_EN</t>
+  </si>
+  <si>
+    <t>ADM2ALT1_RU</t>
+  </si>
+  <si>
+    <t>ADM2ALT2_RU</t>
+  </si>
+  <si>
+    <t>ADM2ALT1_KY</t>
+  </si>
+  <si>
+    <t>ADM2ALT2_KY</t>
+  </si>
+  <si>
+    <t>VALID_TO</t>
+  </si>
+  <si>
+    <t>ADM2TYPE_EN</t>
+  </si>
+  <si>
+    <t>ADM2TYPE_RU</t>
+  </si>
+  <si>
+    <t>ADM2TYPE_KY</t>
   </si>
   <si>
     <t>Ak-Bashy</t>
@@ -907,46 +907,46 @@
     <t xml:space="preserve">району </t>
   </si>
   <si>
-    <t>admin3Name_en</t>
-  </si>
-  <si>
-    <t>admin3Name_ru</t>
-  </si>
-  <si>
-    <t>admin3Name_ky</t>
-  </si>
-  <si>
-    <t>admin3Pcode</t>
-  </si>
-  <si>
-    <t>admin3RefName</t>
-  </si>
-  <si>
-    <t>admin3AltName1_en</t>
-  </si>
-  <si>
-    <t>admin3AltName2_en</t>
-  </si>
-  <si>
-    <t>admin3AltName1_ru</t>
-  </si>
-  <si>
-    <t>admin3AltName2_ru</t>
-  </si>
-  <si>
-    <t>admin3AltName1_ky</t>
-  </si>
-  <si>
-    <t>admin3AltName2_ky</t>
-  </si>
-  <si>
-    <t>admin3Type_en</t>
-  </si>
-  <si>
-    <t>admin3Type_ru</t>
-  </si>
-  <si>
-    <t>admin3Type_ky</t>
+    <t>ADM3_EN</t>
+  </si>
+  <si>
+    <t>ADM3_RU</t>
+  </si>
+  <si>
+    <t>ADM3_KY</t>
+  </si>
+  <si>
+    <t>ADM3_PCODE</t>
+  </si>
+  <si>
+    <t>ADM3_REF</t>
+  </si>
+  <si>
+    <t>ADM3ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM3ALT2_EN</t>
+  </si>
+  <si>
+    <t>ADM3ALT1_RU</t>
+  </si>
+  <si>
+    <t>ADM3ALT2_RU</t>
+  </si>
+  <si>
+    <t>ADM3ALT1_KY</t>
+  </si>
+  <si>
+    <t>ADM3ALT2_KY</t>
+  </si>
+  <si>
+    <t>ADM3TYPE_EN</t>
+  </si>
+  <si>
+    <t>ADM3TYPE_RU</t>
+  </si>
+  <si>
+    <t>ADM3TYPE_KY</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -7091,17 +7091,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -7188,21 +7177,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="17" width="10.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -7683,24 +7657,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="21" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="26.7109375" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
@@ -10765,26 +10721,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="25" width="10.7109375" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" customWidth="1"/>
-    <col min="27" max="28" width="24.7109375" customWidth="1"/>
-    <col min="29" max="29" width="39.7109375" customWidth="1"/>
-    <col min="30" max="30" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
